--- a/data/case1/13/Qlm2_1.xlsx
+++ b/data/case1/13/Qlm2_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.11184819516619626</v>
+        <v>-0.098389817566534532</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11145860302868726</v>
+        <v>0.097855647603999785</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.10263919421970424</v>
+        <v>-0.11675307120240586</v>
       </c>
       <c r="B2" s="0">
-        <v>0.10158095796334443</v>
+        <v>0.11519165509362672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.051867274572234834</v>
+        <v>-0.0654747902382109</v>
       </c>
       <c r="B3" s="0">
-        <v>0.051625574398798335</v>
+        <v>0.065009460279076947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.043625574471425566</v>
+        <v>-0.057009460361811648</v>
       </c>
       <c r="B4" s="0">
-        <v>0.043421251862737265</v>
+        <v>0.056591213643544691</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.094064444000470537</v>
+        <v>-0.053591213686492445</v>
       </c>
       <c r="B5" s="0">
-        <v>0.092692057913156489</v>
+        <v>0.052172202290058145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0065584967200038591</v>
+        <v>-0.029879679249052771</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0066353230093145754</v>
+        <v>0.029674544341085962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.016635322910053763</v>
+        <v>-0.019674544452588538</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.016647344064979475</v>
+        <v>0.019638709559127943</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.026647343967467485</v>
+        <v>-0.0096387096727754695</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.026682389293856357</v>
+        <v>0.0096064900667305331</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.028682389264236718</v>
+        <v>-0.0076064901128365392</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.028723019690217289</v>
+        <v>0.0075883823465239253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.030723019665378715</v>
+        <v>-0.0055883823937055155</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.030725704660186537</v>
+        <v>0.0055888680594122775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0058536023518902525</v>
+        <v>-0.0025888681152430593</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0058637723729555447</v>
+        <v>0.0025890515741897602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0093637723370658676</v>
+        <v>0.00091094836564531434</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0095086234403507497</v>
+        <v>-0.00091131563049362541</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.01300862340648834</v>
+        <v>0.0044113155706009266</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.013126711594247276</v>
+        <v>-0.0044129546328859348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090775895771590953</v>
+        <v>-0.0090809763536645605</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090504368927160073</v>
+        <v>0.0090526289093704193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080504369059362091</v>
+        <v>-0.0080526289480937763</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080329249893562604</v>
+        <v>0.0080343481509448367</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.006032925011077328</v>
+        <v>-0.0060343481991269599</v>
       </c>
       <c r="B16" s="0">
-        <v>0.006003170067697905</v>
+        <v>0.0060032422899398696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040031700901286271</v>
+        <v>-0.0040032423392464267</v>
       </c>
       <c r="B17" s="0">
-        <v>0.003999999961497025</v>
+        <v>0.0039999999331445935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0028194088574338139</v>
+        <v>0.020752410149125211</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0027227771259141775</v>
+        <v>-0.020859615454050129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0012772228414039688</v>
+        <v>-0.012091173233750752</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0019995781051105332</v>
+        <v>0.012016121845738414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0059995780723536285</v>
+        <v>-0.0080161218838092907</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.0062065508357260768</v>
+        <v>0.0080056098545249199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.010206550803220082</v>
+        <v>-0.0040056098930270068</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.01053404203518582</v>
+        <v>0.0039999999612545523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.04571368343006732</v>
+        <v>-0.045716864900272824</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045500102243698493</v>
+        <v>0.0455023819647149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040500102293250073</v>
+        <v>-0.040502382021103678</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099159238420334</v>
+        <v>0.040099595994467663</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099159410982281</v>
+        <v>-0.020099596185700896</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999824999115</v>
+        <v>0.019999999806175062</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097250554669956912</v>
+        <v>-0.020292523082805047</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097126735376871665</v>
+        <v>0.020229851945405386</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094626735420016317</v>
+        <v>-0.017729851992063672</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094466634794441617</v>
+        <v>0.01765164289040122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091966634841232686</v>
+        <v>-0.015151642937763832</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091014026052280705</v>
+        <v>0.014703431206426032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089014026110399769</v>
+        <v>-0.01761409557868987</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088361946554963211</v>
+        <v>0.017312812457054072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081361946663746743</v>
+        <v>-0.010312812548319172</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081173183410336414</v>
+        <v>0.01023641759395133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021173183945211616</v>
+        <v>-0.021170866717706183</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022889751407092</v>
+        <v>0.021022378321646329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022889869114152</v>
+        <v>-0.014022378417227088</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000989082262549</v>
+        <v>0.014000941059537197</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.004000989224168805</v>
+        <v>-0.0040009411816139817</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999056323787</v>
+        <v>0.0039999999295616817</v>
       </c>
     </row>
   </sheetData>
